--- a/Результаты в экселях/analize_subgraphs.xlsx
+++ b/Результаты в экселях/analize_subgraphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplom\BioProject\Результаты в экселях\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B969CD2-6C18-4FB7-90FC-9B2DA38A3F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B251A6B4-5A96-4EE9-AB37-278B31800338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{72622740-F394-7B49-99B0-607EDE8BA471}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72622740-F394-7B49-99B0-607EDE8BA471}"/>
   </bookViews>
   <sheets>
     <sheet name="2 связи 3 вершины" sheetId="3" r:id="rId1"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46003B3F-2CB1-C744-BCFD-6B894D0382C9}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4928,7 +4928,7 @@
         <v>0.34825745517658629</v>
       </c>
       <c r="C97">
-        <f t="shared" ref="C97:D97" si="0">STDEVA(C24:C95)</f>
+        <f t="shared" ref="C97" si="0">STDEVA(C24:C95)</f>
         <v>0.38734883971773149</v>
       </c>
       <c r="R97" s="1"/>
@@ -4950,7 +4950,7 @@
         <v>1.8611111111111112</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:D99" si="1">SUM(C24:C95)/72</f>
+        <f t="shared" ref="C99" si="1">SUM(C24:C95)/72</f>
         <v>1.8194444444444444</v>
       </c>
     </row>
@@ -7962,8 +7962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C2239-CDC2-F943-8642-EBEFFC701386}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Результаты в экселях/analize_subgraphs.xlsx
+++ b/Результаты в экселях/analize_subgraphs.xlsx
@@ -43163,39 +43163,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="B1">
-        <v>1.042</v>
-      </c>
-      <c r="C1">
-        <v>1.2150000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>-4.4408920985006202E-16</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="D1">
-        <v>1.4849999999999901</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>1.3740000000000001</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>3.1230000000000002</v>
-      </c>
-      <c r="G1">
-        <v>1.1779999999999999</v>
+        <v>0.38464066249918299</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H1">
-        <v>3.1669999999999998</v>
+        <v>0.27648795515084901</v>
       </c>
       <c r="I1">
-        <v>3.0609999999999999</v>
+        <v>0.30857146119932399</v>
       </c>
       <c r="J1">
         <v>0</v>
@@ -43249,48 +43249,12 @@
         <v>0</v>
       </c>
       <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1">
-        <v>0</v>
-      </c>
-      <c r="AE1">
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <v>0</v>
-      </c>
-      <c r="AG1">
-        <v>0</v>
-      </c>
-      <c r="AH1">
-        <v>0</v>
-      </c>
-      <c r="AI1">
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <v>0</v>
-      </c>
-      <c r="AK1">
-        <v>0</v>
-      </c>
-      <c r="AL1">
-        <v>0</v>
-      </c>
-      <c r="AM1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.85099999999999998</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -43302,31 +43266,31 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.13499999999999</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.6619999999999999</v>
+        <v>0.319804116256792</v>
       </c>
       <c r="G2">
-        <v>1.264</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.802</v>
+        <v>0.28265117044468602</v>
       </c>
       <c r="I2">
-        <v>2.6459999999999999</v>
+        <v>0.25307392210264401</v>
       </c>
       <c r="J2">
-        <v>0.99199999999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.1869999999999998</v>
+        <v>0.49749381607950999</v>
       </c>
       <c r="L2">
-        <v>1.619</v>
-      </c>
-      <c r="M2">
-        <v>1.3279999999999901</v>
+        <v>8.8517189994919296E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -43368,72 +43332,37 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.81699999999999995</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C3">
-        <v>1.018</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-6.6613381477509304E-16</v>
       </c>
       <c r="D3">
-        <v>1.254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.82899999999999996</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.4839999999999902</v>
-      </c>
-      <c r="G3">
-        <v>0.7</v>
+        <v>0.17451690821256</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="H3">
-        <v>3.0529999999999999</v>
+        <v>0.31959709720475898</v>
       </c>
       <c r="I3">
-        <v>3.048</v>
+        <v>0.287697959076473</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -43487,72 +43416,36 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.873</v>
-      </c>
-      <c r="B4">
-        <v>1.7149999999999901</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="C4">
-        <v>1.49799999999999</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.115</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>2.9409999999999998</v>
+        <v>0.36051249780189099</v>
       </c>
       <c r="G4">
-        <v>1.0699999999999901</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.1449999999999898</v>
+        <v>0.32626542749613902</v>
       </c>
       <c r="I4" s="2">
-        <v>3.08299999999999</v>
+        <v>0.312636738840401</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -43606,93 +43499,57 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.86</v>
-      </c>
-      <c r="B5">
-        <v>1.456</v>
-      </c>
-      <c r="C5">
-        <v>1.4289999999999901</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.3306690738754598E-16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="D5">
-        <v>0.94199999999999995</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>2.9079999999999999</v>
-      </c>
-      <c r="G5">
-        <v>1.1160000000000001</v>
+        <v>0.364276132435495</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="H5">
-        <v>3.2450000000000001</v>
+        <v>0.250594419291502</v>
       </c>
       <c r="I5">
-        <v>3.2429999999999999</v>
+        <v>0.36539322960271398</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.5469999999999899</v>
+        <v>0.48495577990473199</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.19725549094248401</v>
       </c>
       <c r="N5">
-        <v>1.0569999999999999</v>
+        <v>0.246972334221987</v>
       </c>
       <c r="O5">
-        <v>1.107</v>
+        <v>0.24306226584617399</v>
       </c>
       <c r="P5">
-        <v>1.113</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -43725,48 +43582,12 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.84799999999999998</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -43778,22 +43599,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.349</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.8619999999999899</v>
+        <v>0.30258261340068399</v>
       </c>
       <c r="G6">
-        <v>0.746</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.4169999999999998</v>
+        <v>0.27852283739043998</v>
       </c>
       <c r="I6">
-        <v>2.407</v>
-      </c>
-      <c r="J6">
-        <v>0.65300000000000002</v>
+        <v>0.185251039543472</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -43802,16 +43623,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.9043057003354797E-2</v>
       </c>
       <c r="N6">
-        <v>1.1789999999999901</v>
+        <v>0.23203882413513399</v>
       </c>
       <c r="O6">
-        <v>1.121</v>
+        <v>-1.09078132252535E-2</v>
       </c>
       <c r="P6">
-        <v>1.863</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -43844,51 +43665,15 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="B7">
-        <v>2.8050000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -43900,16 +43685,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.6739999999999999</v>
-      </c>
-      <c r="G7">
-        <v>1.3</v>
+        <v>0.30267635822729</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H7">
-        <v>3.0469999999999899</v>
+        <v>0.246038138521009</v>
       </c>
       <c r="I7">
-        <v>2.8879999999999901</v>
+        <v>0.30502344930978098</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -43917,11 +43702,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="L7" s="2">
+        <v>-0.31979660874938398</v>
       </c>
       <c r="M7">
-        <v>0.92700000000000005</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -43933,10 +43718,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.8199999999999901</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.556</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -43963,78 +43748,43 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.90100000000000002</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1.724</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-9.9745966794580601E-2</v>
       </c>
       <c r="E8">
-        <v>1.034</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>2.7759999999999998</v>
-      </c>
-      <c r="G8">
-        <v>1.3619999999999901</v>
+        <v>0.31876328804325199</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="H8">
-        <v>1.6559999999999999</v>
+        <v>-3.3637198359354997E-2</v>
       </c>
       <c r="I8">
-        <v>1.73199999999999</v>
+        <v>2.1864449381030299E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>2.31299999999999</v>
+      <c r="K8" s="2">
+        <v>0.47927259017762502</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -44046,7 +43796,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.32165695601246502</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -44057,11 +43807,11 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8">
-        <v>1.8079999999999901</v>
+      <c r="S8" s="2">
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.96199999999999997</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -44082,73 +43832,37 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="B9">
-        <v>2.4089999999999998</v>
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="C9">
-        <v>2.2639999999999998</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.85399999999999998</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.94099999999999995</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="G9">
-        <v>1.2609999999999999</v>
+        <v>0.20184909276948601</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3.3306690738754598E-16</v>
       </c>
       <c r="H9">
-        <v>3.07899999999999</v>
+        <v>0.27739463585366603</v>
       </c>
       <c r="I9">
-        <v>3.0070000000000001</v>
+        <v>0.30843246923346601</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -44202,78 +43916,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.89</v>
-      </c>
-      <c r="B10">
-        <v>1.958</v>
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="C10">
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="D10">
-        <v>1.2729999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.103</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2.5379999999999998</v>
-      </c>
-      <c r="G10">
-        <v>0.435</v>
+        <v>0.25181838109591598</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.875</v>
+        <v>0.23149755765595401</v>
       </c>
       <c r="I10" s="2">
-        <v>2.9609999999999999</v>
+        <v>0.36487081125896298</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.0169999999999999</v>
+        <v>0.44475048355709201</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -44321,72 +43999,36 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.83599999999999997</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1.2269999999999901</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.74099999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="E11">
-        <v>1.0669999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3.0070000000000001</v>
-      </c>
-      <c r="G11">
-        <v>1.45799999999999</v>
+        <v>0.39748291565329902</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H11">
-        <v>1.5629999999999999</v>
+        <v>0.244930451430206</v>
       </c>
       <c r="I11" s="2">
-        <v>1.597</v>
+        <v>-7.5656492742929597E-3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -44398,13 +44040,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.254464061163925</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.26787785942708398</v>
       </c>
       <c r="O11">
-        <v>0.83299999999999996</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -44422,7 +44064,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.56399999999999995</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -44440,72 +44082,36 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0.88200000000000001</v>
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.714</v>
-      </c>
-      <c r="D12">
-        <v>1.472</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.895</v>
+        <v>0.38924230628115197</v>
       </c>
       <c r="G12">
-        <v>1.1259999999999999</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.9369999999999901</v>
+        <v>9.9825851439603999E-2</v>
       </c>
       <c r="I12" s="2">
-        <v>2.0209999999999999</v>
+        <v>0.109920427299598</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -44532,7 +44138,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.120842291295923</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -44544,10 +44150,10 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0.73199999999999998</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -44559,78 +44165,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>0.90300000000000002</v>
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="B13">
-        <v>2.476</v>
-      </c>
-      <c r="C13">
-        <v>2.38</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="D13">
-        <v>1.2050000000000001</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.0409999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.86499999999999</v>
+        <v>0.23942887536027699</v>
       </c>
       <c r="G13">
-        <v>1.238</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2.948</v>
+        <v>0.28389759908978601</v>
       </c>
       <c r="I13">
-        <v>2.8639999999999999</v>
+        <v>0.293530835004369</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>1.4059999999999999</v>
+      <c r="K13" s="2">
+        <v>0.48059727766997301</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -44678,78 +44248,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="B14">
-        <v>0.748</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="C14">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="D14">
-        <v>1.0389999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.5129999999999999</v>
+        <v>0.47846338543779698</v>
       </c>
       <c r="G14">
-        <v>1.3029999999999999</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2.9449999999999998</v>
+        <v>0.307833714303832</v>
       </c>
       <c r="I14" s="2">
-        <v>2.8559999999999999</v>
+        <v>0.27645941955213399</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>3.4390000000000001</v>
+      <c r="K14" s="2">
+        <v>0.49951372827683999</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -44782,7 +44316,7 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0.755</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -44797,78 +44331,42 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.86399999999999999</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="D15">
-        <v>1.595</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.3306690738754598E-16</v>
       </c>
       <c r="E15">
-        <v>1.2649999999999999</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2.85299999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.78400000000000003</v>
+        <v>0.315280254862364</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3.3306690738754598E-16</v>
       </c>
       <c r="H15">
-        <v>2.8359999999999999</v>
+        <v>0.30598928545140902</v>
       </c>
       <c r="I15">
-        <v>2.7709999999999999</v>
+        <v>0.27330730287567401</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>2.3319999999999999</v>
+      <c r="K15" s="2">
+        <v>0.49694523432650001</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -44889,7 +44387,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.120046508569413</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -44904,7 +44402,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>2.0550000000000002</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -44916,72 +44414,36 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="B16">
-        <v>2.8540000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.4408920985006202E-16</v>
       </c>
       <c r="C16">
-        <v>2.8319999999999999</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1.121</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.74199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2.7489999999999899</v>
+        <v>0.31114055694845</v>
       </c>
       <c r="G16">
-        <v>1.153</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2.6160000000000001</v>
+        <v>0.40915350372677101</v>
       </c>
       <c r="I16">
-        <v>2.625</v>
+        <v>0.17262606802721001</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -45035,54 +44497,18 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="B17">
-        <v>2.2170000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="C17">
-        <v>2.1909999999999998</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -45091,16 +44517,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.11</v>
-      </c>
-      <c r="G17">
-        <v>1.208</v>
+        <v>6.4251813750814193E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H17">
-        <v>3.206</v>
+        <v>0.28135014899153898</v>
       </c>
       <c r="I17">
-        <v>3.1749999999999998</v>
+        <v>0.313953599107198</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -45123,8 +44549,8 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>1.829</v>
+      <c r="Q17" s="2">
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -45154,72 +44580,36 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.87</v>
-      </c>
-      <c r="B18">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="C18">
-        <v>1.7030000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-2.2204460492503101E-16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.4408920985006202E-16</v>
       </c>
       <c r="D18">
-        <v>0.90799999999999903</v>
-      </c>
-      <c r="E18">
-        <v>0.875</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="F18" s="2">
-        <v>2.605</v>
-      </c>
-      <c r="G18">
-        <v>1.31</v>
+        <v>0.33606087510729699</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2.024</v>
+        <v>0.17054974691058999</v>
       </c>
       <c r="I18">
-        <v>1.9749999999999901</v>
+        <v>0.10154282967473099</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -45273,48 +44663,12 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.88800000000000001</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -45322,23 +44676,23 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0.93100000000000005</v>
+      <c r="D19" s="2">
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1.3740000000000001</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2.952</v>
+        <v>0.34105437450885301</v>
       </c>
       <c r="G19">
-        <v>1.448</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2.508</v>
+        <v>0.29315751000307699</v>
       </c>
       <c r="I19">
-        <v>2.4689999999999999</v>
+        <v>0.23631048492600201</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -45392,93 +44746,57 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.83199999999999996</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>1.5499999999999901</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.256</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1.373</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2.5179999999999998</v>
-      </c>
-      <c r="G20">
-        <v>1.4810000000000001</v>
+        <v>0.24597670402963601</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H20">
-        <v>1.667</v>
+        <v>9.4935422033768906E-3</v>
       </c>
       <c r="I20">
-        <v>1.6359999999999999</v>
+        <v>8.0117810749577301E-3</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>1.893</v>
+      <c r="K20" s="2">
+        <v>0.48989381459035602</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.238980296063346</v>
       </c>
       <c r="N20">
-        <v>1.347</v>
+        <v>0.21023678410993099</v>
       </c>
       <c r="O20">
-        <v>1.397</v>
+        <v>0.165213099593636</v>
       </c>
       <c r="P20">
-        <v>1.4990000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -45502,7 +44820,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0.80499999999999905</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -45511,48 +44829,12 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0.88200000000000001</v>
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -45561,28 +44843,28 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.5249999999999999</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.94499999999999995</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2.9909999999999899</v>
+        <v>0.35891224324930598</v>
       </c>
       <c r="G21">
-        <v>1.1949999999999901</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2.6419999999999999</v>
+        <v>0.37530285821364601</v>
       </c>
       <c r="I21">
-        <v>2.633</v>
+        <v>0.21494754776970301</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.6139999999999999</v>
+        <v>0.48036022558772101</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -45606,7 +44888,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>0.45204377186806899</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -45624,78 +44906,42 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>2.363</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>0.82699999999999996</v>
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="B22">
-        <v>1.0169999999999999</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.026</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.82199999999999995</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.15899999999999</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>3.052</v>
-      </c>
-      <c r="G22">
-        <v>1.151</v>
+        <v>0.35078167808660299</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H22">
-        <v>2.133</v>
+        <v>9.6173606591571204E-2</v>
       </c>
       <c r="I22">
-        <v>1.9609999999999901</v>
+        <v>0.12949246669046899</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -45749,72 +44995,36 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.85199999999999998</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>2.056</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.073</v>
-      </c>
-      <c r="D23">
-        <v>1.333</v>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1.337</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>3.19</v>
+        <v>0.41430209019172298</v>
       </c>
       <c r="G23">
-        <v>1.0589999999999999</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2.6669999999999998</v>
+        <v>0.33991167302062397</v>
       </c>
       <c r="I23" s="2">
-        <v>2.6219999999999999</v>
+        <v>0.24727129941392401</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -45826,7 +45036,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.43779116370791299</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -45850,7 +45060,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1.9059999999999999</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -45868,78 +45078,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0.876</v>
-      </c>
-      <c r="B24">
-        <v>1.41</v>
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="C24">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="D24">
-        <v>1.1719999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="E24">
-        <v>0.95399999999999996</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2.9009999999999998</v>
-      </c>
-      <c r="G24">
-        <v>1.1659999999999999</v>
+        <v>0.36413378833458598</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H24">
-        <v>2.8039999999999998</v>
+        <v>0.27787463802474899</v>
       </c>
       <c r="I24" s="2">
-        <v>2.7189999999999999</v>
+        <v>0.26630195939083101</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.56</v>
+        <v>0.47668182373046802</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -45987,48 +45161,12 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.83699999999999997</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -46040,25 +45178,25 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.014</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2.8140000000000001</v>
+        <v>0.30813789464697999</v>
       </c>
       <c r="G25">
-        <v>1.236</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3.11499999999999</v>
+        <v>0.30693795104205002</v>
       </c>
       <c r="I25">
-        <v>3.0539999999999998</v>
-      </c>
-      <c r="J25">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="K25">
-        <v>2.298</v>
+        <v>0.30428316283753298</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.487362056989806</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -46106,72 +45244,36 @@
         <v>0</v>
       </c>
       <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.88300000000000001</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0.996999999999999</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1.1319999999999999</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="G26">
-        <v>1.07</v>
+        <v>0.34578599739632199</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4.4408920985006202E-16</v>
       </c>
       <c r="H26">
-        <v>2.17</v>
+        <v>0.18954278069188099</v>
       </c>
       <c r="I26" s="2">
-        <v>2.0960000000000001</v>
+        <v>0.170490706580327</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -46198,7 +45300,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <v>0</v>
+        <v>3.9240645949859397E-2</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -46213,7 +45315,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0.93300000000000005</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -46225,72 +45327,36 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="B27">
-        <v>1.8640000000000001</v>
-      </c>
-      <c r="C27">
-        <v>1.643</v>
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-1.11022302462515E-16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="D27">
-        <v>1.2429999999999899</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.89300000000000002</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="G27">
-        <v>1.15299999999999</v>
+        <v>0.32104953175228601</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H27">
-        <v>1.94799999999999</v>
+        <v>0.114588647757506</v>
       </c>
       <c r="I27">
-        <v>1.921</v>
+        <v>0.134669930771459</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -46344,72 +45410,36 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.878</v>
-      </c>
-      <c r="B28">
-        <v>0.315</v>
-      </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-      <c r="D28">
-        <v>0.999</v>
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-1.11022302462515E-16</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.71699999999999997</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2.4139999999999899</v>
-      </c>
-      <c r="G28">
-        <v>1.119</v>
+        <v>0.27351667880473501</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H28">
-        <v>3.3250000000000002</v>
+        <v>0.25928516026909298</v>
       </c>
       <c r="I28">
-        <v>3.2829999999999999</v>
+        <v>0.34588678011473001</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -46424,10 +45454,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1.8519999999999901</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.15862543091584999</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -46463,48 +45493,12 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.86099999999999999</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -46512,23 +45506,23 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.33</v>
-      </c>
-      <c r="G29">
-        <v>1.3180000000000001</v>
+        <v>0.366121221610271</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="H29">
-        <v>2.7149999999999999</v>
+        <v>0.333956364105016</v>
       </c>
       <c r="I29">
-        <v>2.7450000000000001</v>
+        <v>0.26291730949797698</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -46540,16 +45534,16 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.238917250421882</v>
       </c>
       <c r="N29">
-        <v>1.1479999999999999</v>
+        <v>0.24800828534141101</v>
       </c>
       <c r="O29">
-        <v>1.4449999999999901</v>
+        <v>0.34813689627379202</v>
       </c>
       <c r="P29">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -46558,7 +45552,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1.7829999999999999</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -46579,52 +45573,16 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1.544</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA29" s="2"/>
     </row>
     <row r="30" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.90100000000000002</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -46633,22 +45591,22 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1.4319999999999999</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2.581</v>
-      </c>
-      <c r="G30">
-        <v>1.4079999999999999</v>
+        <v>0.279398777553789</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="H30">
-        <v>3.0150000000000001</v>
+        <v>0.288552758595084</v>
       </c>
       <c r="I30">
-        <v>3.0190000000000001</v>
+        <v>0.29984949027145102</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -46681,7 +45639,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.39632176200416303</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -46698,59 +45656,23 @@
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Z30">
-        <v>0.42099999999999999</v>
+      <c r="Z30" s="2">
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>2.7409999999999899</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD30" s="2"/>
     </row>
     <row r="31" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="B31">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="C31">
-        <v>1.3160000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-4.4408920985006202E-16</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -46762,13 +45684,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1.355</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>3.496</v>
+        <v>0.29770391398603901</v>
       </c>
       <c r="I31">
-        <v>3.4849999999999999</v>
+        <v>0.333821851797723</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -46780,22 +45702,22 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.20565017486494899</v>
       </c>
       <c r="N31">
-        <v>1.506</v>
+        <v>0.211280188857359</v>
       </c>
       <c r="O31">
-        <v>1.4610000000000001</v>
+        <v>0.265453822625977</v>
       </c>
       <c r="P31">
-        <v>1.3559999999999901</v>
-      </c>
-      <c r="Q31">
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="R31">
-        <v>1.581</v>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>-1.11022302462515E-16</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -46804,10 +45726,10 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>0.287933956019159</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>0.45626964145329302</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -46822,72 +45744,37 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>1.9339999999999999</v>
-      </c>
-      <c r="AC31">
-        <v>1.585</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="2"/>
     </row>
     <row r="32" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.85699999999999998</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.18123976482590101</v>
       </c>
       <c r="C32">
-        <v>0.64199999999999902</v>
-      </c>
-      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.97599999999999998</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2.6549999999999998</v>
+        <v>0.34368575795943401</v>
       </c>
       <c r="G32">
-        <v>1.0469999999999999</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>3.1219999999999999</v>
+        <v>0.28446609193256001</v>
       </c>
       <c r="I32">
-        <v>3.1</v>
+        <v>0.322864047866805</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -46902,10 +45789,10 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2.7360000000000002</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.21367685783659901</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -46914,10 +45801,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <v>0</v>
+        <v>-0.27879193719005002</v>
       </c>
       <c r="S32">
-        <v>1.8089999999999999</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -46928,7 +45815,7 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="2">
         <v>0</v>
       </c>
       <c r="X32">
@@ -46941,72 +45828,36 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="B33">
-        <v>1.284</v>
-      </c>
-      <c r="C33">
-        <v>1.407</v>
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-2.2204460492503101E-16</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>-9.6213049361150299E-2</v>
       </c>
       <c r="E33">
-        <v>0.94899999999999995</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>2.6139999999999901</v>
+        <v>0.22848535254520799</v>
       </c>
       <c r="G33">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>3.032</v>
+        <v>0.28017070335071398</v>
       </c>
       <c r="I33">
-        <v>3.0089999999999999</v>
+        <v>0.31173130657876802</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -47035,8 +45886,8 @@
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33">
-        <v>1.786</v>
+      <c r="S33" s="2">
+        <v>0</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -47060,48 +45911,12 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.89700000000000002</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -47116,28 +45931,28 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.609</v>
+        <v>0.33594351069160699</v>
       </c>
       <c r="G34">
-        <v>1.0409999999999999</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>3.5459999999999998</v>
+        <v>0.18784334421600599</v>
       </c>
       <c r="I34">
-        <v>3.3010000000000002</v>
+        <v>0.36068095913578901</v>
       </c>
       <c r="J34">
-        <v>0.60199999999999998</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1.177</v>
+        <v>1.2156048014773701E-2</v>
       </c>
       <c r="M34">
-        <v>1.1399999999999999</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -47149,7 +45964,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1.8199999999999901</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -47179,72 +45994,36 @@
         <v>0</v>
       </c>
       <c r="AA34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.86499999999999999</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>2.069</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>2.012</v>
-      </c>
-      <c r="D35">
-        <v>1.728</v>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1.117</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>2.9009999999999998</v>
+        <v>0.30416973975501499</v>
       </c>
       <c r="G35">
-        <v>1.417</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3.077</v>
+        <v>0.25718037175817399</v>
       </c>
       <c r="I35">
-        <v>3.0110000000000001</v>
+        <v>0.321619742335228</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -47298,78 +46077,42 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>0.86899999999999999</v>
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="B36">
-        <v>1.1819999999999999</v>
-      </c>
-      <c r="C36">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D36">
-        <v>1.3759999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-2.2204460492503101E-16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="E36">
-        <v>1.0820000000000001</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>2.4209999999999998</v>
+        <v>0.19947584479123101</v>
       </c>
       <c r="G36">
-        <v>1.1819999999999999</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3.38</v>
+        <v>0.28265812646616001</v>
       </c>
       <c r="I36" s="2">
-        <v>3.2629999999999999</v>
+        <v>0.341481430415916</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1.732</v>
+        <v>0.46956204764012799</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -47417,48 +46160,12 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -47466,35 +46173,35 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>0.93600000000000005</v>
+      <c r="D37" s="2">
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.90400000000000003</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.7409999999999899</v>
-      </c>
-      <c r="G37">
-        <v>1.1950000000000001</v>
+        <v>0.22257339873134299</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-4.4408920985006202E-16</v>
       </c>
       <c r="H37">
-        <v>2.2730000000000001</v>
+        <v>0.17655605920338299</v>
       </c>
       <c r="I37" s="2">
-        <v>2.2629999999999999</v>
+        <v>0.21263582592177599</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
+        <v>0.25598198704465602</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.34139211769771299</v>
       </c>
       <c r="M37">
-        <v>1.123</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -47536,72 +46243,37 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>2.8919999999999999</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="2"/>
     </row>
     <row r="38" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.871</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>1.476</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1.448</v>
-      </c>
-      <c r="D38">
-        <v>1.7010000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1.3519999999999901</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2.9590000000000001</v>
-      </c>
-      <c r="G38">
-        <v>0.86399999999999999</v>
+        <v>0.300270361608651</v>
+      </c>
+      <c r="G38" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="H38">
-        <v>3.3759999999999999</v>
+        <v>0.28344028485153</v>
       </c>
       <c r="I38" s="2">
-        <v>3.274</v>
+        <v>0.328432366745044</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -47613,10 +46285,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>6.1286601230040101E-2</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>-0.36794569898965501</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -47634,7 +46306,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0.54600000000000004</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -47655,48 +46327,12 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.88800000000000001</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -47711,16 +46347,16 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="G39">
-        <v>1.643</v>
+        <v>0.17974748535554999</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="H39">
-        <v>2.302</v>
+        <v>0.25291336208230503</v>
       </c>
       <c r="I39">
-        <v>2.2679999999999998</v>
+        <v>0.202252351557907</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -47729,10 +46365,10 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.64800000000000002</v>
+        <v>-0.162666504223521</v>
       </c>
       <c r="M39">
-        <v>0.68400000000000005</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -47744,10 +46380,10 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1.8080000000000001</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2">
-        <v>1.8199999999999901</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -47774,78 +46410,42 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="B40">
-        <v>1.4369999999999901</v>
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>0.878999999999999</v>
-      </c>
-      <c r="E40">
-        <v>0.89400000000000002</v>
+      <c r="D40" s="2">
+        <v>-2.2204460492503101E-16</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="F40">
-        <v>1.544</v>
-      </c>
-      <c r="G40">
-        <v>1.1819999999999999</v>
+        <v>7.0243286732529706E-2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H40">
-        <v>3.0579999999999998</v>
+        <v>0.29219908453996601</v>
       </c>
       <c r="I40" s="2">
-        <v>2.9790000000000001</v>
+        <v>0.28757185945571101</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1.016</v>
+        <v>0.36631174824849599</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -47893,72 +46493,36 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.83</v>
-      </c>
-      <c r="B41">
-        <v>0.745</v>
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="C41">
-        <v>0.82399999999999995</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1.1080000000000001</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2.8459999999999899</v>
-      </c>
-      <c r="G41">
-        <v>1.175</v>
+        <v>0.32325621046466302</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H41">
-        <v>2.0389999999999899</v>
+        <v>6.3716815862144699E-2</v>
       </c>
       <c r="I41">
-        <v>1.845</v>
+        <v>0.17737722255271299</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -48012,54 +46576,18 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.83299999999999996</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-7.8002021497376298E-2</v>
       </c>
       <c r="C42">
-        <v>0.89800000000000002</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -48068,22 +46596,22 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>2.9910000000000001</v>
+        <v>0.35814743908533803</v>
       </c>
       <c r="G42">
-        <v>1.3439999999999901</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2.0129999999999999</v>
+        <v>4.4639796612628603E-2</v>
       </c>
       <c r="I42">
-        <v>2.0470000000000002</v>
+        <v>0.14459529345672201</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2.5679999999999898</v>
+        <v>0.49948313959977098</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -48101,10 +46629,10 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1.7809999999999999</v>
+        <v>0</v>
       </c>
       <c r="R42" s="2">
-        <v>0</v>
+        <v>0.27261025490944901</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -48118,7 +46646,7 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="2">
         <v>0</v>
       </c>
       <c r="X42">
@@ -48131,78 +46659,42 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.86</v>
-      </c>
-      <c r="B43">
-        <v>1.653</v>
+        <v>0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3.3306690738754598E-16</v>
       </c>
       <c r="C43">
-        <v>1.302</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.85899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.85399999999999998</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.8919999999999999</v>
+        <v>0.28300253878576298</v>
       </c>
       <c r="G43">
-        <v>0.92299999999999904</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2.3359999999999999</v>
+        <v>0.13332112248428299</v>
       </c>
       <c r="I43" s="2">
-        <v>2.4540000000000002</v>
+        <v>0.21359742987348601</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2.3170000000000002</v>
+        <v>0.13942312259557499</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -48250,60 +46742,24 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.79100000000000004</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>2.8860000000000001</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>3.6999999999999998E-2</v>
+      <c r="D44" s="2">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -48345,7 +46801,7 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>1.8109999999999999</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -48369,67 +46825,31 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA44" s="2"/>
     </row>
     <row r="45" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="B45">
-        <v>0.49299999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="C45">
-        <v>0.79400000000000004</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>0.877</v>
+      <c r="G45" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -48477,10 +46897,10 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>7.8661111111111098E-2</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>9.1913528684553505E-2</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -48489,66 +46909,31 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0.3</v>
-      </c>
-      <c r="AH45">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AG45" s="2"/>
     </row>
     <row r="46" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="B46">
-        <v>1.4379999999999999</v>
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="C46">
-        <v>1.458</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1.0469999999999999</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.78300000000000003</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1.222</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -48566,16 +46951,16 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>9.7917657550535303E-2</v>
       </c>
       <c r="N46">
-        <v>0.57999999999999996</v>
+        <v>1.19956064284889E-2</v>
       </c>
       <c r="O46">
-        <v>0.74399999999999999</v>
+        <v>-6.6508884688090797E-2</v>
       </c>
       <c r="P46">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -48608,66 +46993,30 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>0.88300000000000001</v>
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47">
-        <v>1.641</v>
-      </c>
-      <c r="D47">
-        <v>1.7929999999999999</v>
+      <c r="C47" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="E47">
-        <v>0.90600000000000003</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.91100000000000003</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -48700,7 +47049,7 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>0.122248253821836</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -48715,7 +47064,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1.675</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -48727,72 +47076,36 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="B48">
-        <v>1.1749999999999901</v>
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-4.4408920985006202E-16</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1.097</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0.36099999999999999</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.7789999999999999</v>
-      </c>
-      <c r="G48">
-        <v>1.508</v>
+        <v>0.256363431843811</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H48">
-        <v>1.6479999999999999</v>
+        <v>5.6720524731359898E-2</v>
       </c>
       <c r="I48">
-        <v>1.607</v>
+        <v>7.6430744614898599E-2</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -48804,16 +47117,16 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>9.3366936956680593E-2</v>
       </c>
       <c r="N48">
-        <v>1.17</v>
+        <v>0.32502264519213198</v>
       </c>
       <c r="O48">
-        <v>1.403</v>
+        <v>0.24620508719873599</v>
       </c>
       <c r="P48">
-        <v>1.556</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -48837,7 +47150,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0.72699999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -48846,78 +47159,42 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="B49">
-        <v>2.8039999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3.3306690738754598E-16</v>
       </c>
       <c r="C49">
-        <v>2.7370000000000001</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1.1779999999999999</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.83499999999999996</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>2.5979999999999999</v>
-      </c>
-      <c r="G49">
-        <v>1.26399999999999</v>
+        <v>0.213480079720232</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H49">
-        <v>2.6970000000000001</v>
+        <v>0.38111304544840202</v>
       </c>
       <c r="I49">
-        <v>2.6589999999999998</v>
+        <v>0.203051689176144</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49">
-        <v>1.883</v>
+      <c r="K49" s="2">
+        <v>0.47867523068154</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -48965,78 +47242,42 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="B50">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="C50">
-        <v>2.004</v>
-      </c>
-      <c r="D50">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="E50">
-        <v>0.96699999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-4.4408920985006202E-16</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="F50">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="G50">
-        <v>0.98499999999999999</v>
+        <v>0.39802745928036798</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="H50">
-        <v>2.6909999999999998</v>
+        <v>0.34114451173730898</v>
       </c>
       <c r="I50" s="2">
-        <v>2.669</v>
+        <v>0.23404467232048601</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50">
-        <v>2.8530000000000002</v>
+      <c r="K50" s="2">
+        <v>0.495551321936963</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
@@ -49084,78 +47325,42 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="B51">
-        <v>2.5590000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0.88200000000000001</v>
+      <c r="D51" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="F51">
-        <v>2.794</v>
-      </c>
-      <c r="G51">
-        <v>0.61599999999999999</v>
+        <v>0.28501072704624703</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H51">
-        <v>3.3109999999999999</v>
+        <v>0.29785141845715102</v>
       </c>
       <c r="I51">
-        <v>3.27</v>
+        <v>0.32241506046067903</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51">
-        <v>2.2170000000000001</v>
+      <c r="K51" s="2">
+        <v>0.48665639625243801</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
@@ -49179,7 +47384,7 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>1.867</v>
+        <v>0</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -49203,48 +47408,12 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.82899999999999996</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -49252,23 +47421,23 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52">
-        <v>0</v>
+      <c r="D52" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.6909999999999998</v>
+        <v>0.34636029563565801</v>
       </c>
       <c r="G52">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2.22799999999999</v>
+        <v>0.15412942507469701</v>
       </c>
       <c r="I52">
-        <v>2.1789999999999998</v>
+        <v>0.195286119054152</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -49277,7 +47446,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>-8.3496760818301194E-2</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -49298,7 +47467,7 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>1.8139999999999901</v>
+        <v>0</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -49316,79 +47485,43 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>0.27624407199200501</v>
       </c>
       <c r="Z52">
-        <v>1.0169999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>1.3559999999999901</v>
-      </c>
-      <c r="AJ52">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA52" s="2"/>
     </row>
     <row r="53" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="B53">
-        <v>1.9949999999999899</v>
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>1.272</v>
+      <c r="D53" s="2">
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>1.1759999999999999</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2.5710000000000002</v>
-      </c>
-      <c r="G53">
-        <v>0.75600000000000001</v>
+        <v>0.27821695810963898</v>
+      </c>
+      <c r="G53" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H53">
-        <v>2.7149999999999999</v>
+        <v>0.243557888953328</v>
       </c>
       <c r="I53" s="2">
-        <v>2.4879999999999902</v>
+        <v>0.27293331140600202</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -49442,72 +47575,36 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.85399999999999998</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.81899999999999995</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2.754</v>
-      </c>
-      <c r="G54">
-        <v>0.745</v>
+        <v>0.24565812769067899</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>2.879</v>
+        <v>0.23349038762808</v>
       </c>
       <c r="I54">
-        <v>2.79</v>
+        <v>0.26488014028596701</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -49552,7 +47649,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>1.9259999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -49561,72 +47658,36 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.89200000000000002</v>
+        <v>0</v>
       </c>
       <c r="B55">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="C55">
-        <v>1.147</v>
-      </c>
-      <c r="D55">
-        <v>0.67600000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3.3306690738754598E-16</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="E55">
-        <v>1.2490000000000001</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2.806</v>
+        <v>0.30073469233274103</v>
       </c>
       <c r="G55">
-        <v>1.226</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>3.2829999999999999</v>
+        <v>0.27791118629656802</v>
       </c>
       <c r="I55" s="2">
-        <v>3.2629999999999999</v>
+        <v>0.34531409241273398</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -49680,48 +47741,12 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -49729,23 +47754,23 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56">
-        <v>0.94099999999999995</v>
+      <c r="D56" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>2.9119999999999999</v>
-      </c>
-      <c r="G56">
-        <v>1.4389999999999901</v>
+        <v>0.34219877392525</v>
+      </c>
+      <c r="G56" s="2">
+        <v>3.3306690738754598E-16</v>
       </c>
       <c r="H56">
-        <v>2.1509999999999998</v>
+        <v>0.15054202676968301</v>
       </c>
       <c r="I56" s="2">
-        <v>2.21</v>
+        <v>0.172904015069306</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -49753,11 +47778,11 @@
       <c r="K56">
         <v>0</v>
       </c>
-      <c r="L56">
-        <v>0.65899999999999903</v>
-      </c>
-      <c r="M56">
-        <v>0.67600000000000005</v>
+      <c r="L56" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -49793,79 +47818,44 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>1.7969999999999999</v>
+        <v>-0.27391482266027001</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="2"/>
       <c r="CD56" s="2"/>
     </row>
     <row r="57" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.83699999999999997</v>
+        <v>0</v>
       </c>
       <c r="B57">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="C57">
-        <v>0.89800000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-9.5858018342697401E-2</v>
       </c>
       <c r="E57">
-        <v>0.90100000000000002</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2">
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="G57">
-        <v>0.82899999999999996</v>
+        <v>0.25743150957046801</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="H57">
-        <v>3.19999999999999</v>
+        <v>0.235042529296874</v>
       </c>
       <c r="I57">
-        <v>3.1599999999999899</v>
+        <v>0.34286878104470397</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -49895,7 +47885,7 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>1.7150000000000001</v>
+        <v>0</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -49919,48 +47909,12 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.90500000000000003</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -49969,22 +47923,22 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.95399999999999996</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="G58">
-        <v>1.4039999999999999</v>
+        <v>0.301776422029082</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H58">
-        <v>1.885</v>
+        <v>0.16135426267686301</v>
       </c>
       <c r="I58">
-        <v>1.88</v>
+        <v>0.115872142372114</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -50038,81 +47992,45 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
-      <c r="AK58">
-        <v>0</v>
-      </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
-      <c r="AM58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>0.876</v>
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1.9059999999999999</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1.3759999999999999</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1.361</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>2.9329999999999998</v>
+        <v>0.378407691076384</v>
       </c>
       <c r="G59">
-        <v>1.238</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>3.0859999999999999</v>
+        <v>0.28950114013950401</v>
       </c>
       <c r="I59">
-        <v>2.97799999999999</v>
+        <v>0.30121737830276202</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="K59">
-        <v>2.58699999999999</v>
+      <c r="K59" s="2">
+        <v>0.49544472384221899</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>-1.9601977759851199E-2</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -50157,78 +48075,42 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
-      <c r="AK59">
-        <v>1.018</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>0.86899999999999999</v>
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="B60">
-        <v>0.72399999999999998</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.96699999999999997</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1.641</v>
-      </c>
-      <c r="E60">
-        <v>0.97</v>
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="F60">
-        <v>3.1040000000000001</v>
-      </c>
-      <c r="G60">
-        <v>1.2169999999999901</v>
+        <v>0.36396335954936698</v>
+      </c>
+      <c r="G60" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H60">
-        <v>3.1890000000000001</v>
+        <v>0.31216308687327798</v>
       </c>
       <c r="I60">
-        <v>3.194</v>
+        <v>0.31577998862143197</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60">
-        <v>2.6829999999999998</v>
+      <c r="K60" s="2">
+        <v>0.499516148458377</v>
       </c>
       <c r="L60" s="2">
         <v>0</v>
@@ -50276,72 +48158,36 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
-      <c r="AK60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
-        <v>0</v>
-      </c>
-      <c r="AM60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.878</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>1.304</v>
-      </c>
-      <c r="C61">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="D61">
-        <v>1.0609999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0.998</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2.7850000000000001</v>
+        <v>0.333150404997276</v>
       </c>
       <c r="G61">
-        <v>1.127</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>2.5430000000000001</v>
+        <v>0.294443476258685</v>
       </c>
       <c r="I61">
-        <v>2.4660000000000002</v>
+        <v>0.241400730387446</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -50395,72 +48241,36 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.85699999999999998</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="C62">
-        <v>0.73199999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="D62">
-        <v>1.006</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0.74399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2">
-        <v>2.58299999999999</v>
+        <v>0.26392068273318098</v>
       </c>
       <c r="G62">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>1.83</v>
+        <v>0.15424393084296301</v>
       </c>
       <c r="I62">
-        <v>1.865</v>
+        <v>0.203332303114375</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -50472,16 +48282,16 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>0.14135054893417001</v>
       </c>
       <c r="N62">
-        <v>0.91799999999999904</v>
+        <v>0.212037490382597</v>
       </c>
       <c r="O62">
-        <v>0.98599999999999999</v>
+        <v>1.6914452294902502E-2</v>
       </c>
       <c r="P62">
-        <v>1.4810000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -50514,72 +48324,36 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="B63">
-        <v>2.7909999999999999</v>
-      </c>
-      <c r="C63">
-        <v>2.5939999999999999</v>
-      </c>
-      <c r="D63">
-        <v>0.89100000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="E63">
-        <v>1.0529999999999999</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>2.85299999999999</v>
-      </c>
-      <c r="G63">
-        <v>1.2529999999999999</v>
+        <v>0.31888945771228</v>
+      </c>
+      <c r="G63" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="H63">
-        <v>2.899</v>
+        <v>0.31791689656161198</v>
       </c>
       <c r="I63" s="2">
-        <v>2.8</v>
+        <v>0.28438628826530599</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -50633,78 +48407,42 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>0</v>
-      </c>
-      <c r="AM63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>0.876</v>
-      </c>
-      <c r="B64">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="C64">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="D64">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="E64">
-        <v>1.044</v>
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-2.2204460492503101E-16</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="F64" s="2">
-        <v>2.9089999999999998</v>
+        <v>0.34553727298821602</v>
       </c>
       <c r="G64">
-        <v>1.4419999999999999</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>3.0049999999999999</v>
+        <v>0.20643126680158599</v>
       </c>
       <c r="I64" s="2">
-        <v>2.9329999999999998</v>
+        <v>0.31465294521155401</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64">
-        <v>2.48999999999999</v>
+      <c r="K64" s="2">
+        <v>0.48590377574555199</v>
       </c>
       <c r="L64" s="2">
         <v>0</v>
@@ -50752,54 +48490,18 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>0</v>
-      </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
-      <c r="AK64">
-        <v>0</v>
-      </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.85799999999999998</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="C65">
-        <v>0.64800000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -50808,16 +48510,16 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>2.891</v>
+        <v>0.368202897361185</v>
       </c>
       <c r="G65">
-        <v>1.605</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>3.3109999999999999</v>
+        <v>0.29227798463538401</v>
       </c>
       <c r="I65">
-        <v>3.2290000000000001</v>
+        <v>0.33448542028866701</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -50837,11 +48539,11 @@
       <c r="O65">
         <v>0</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>1.8129999999999999</v>
+      <c r="P65" s="2">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -50871,73 +48573,37 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-      <c r="AI65">
-        <v>0</v>
-      </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="AM65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU65" s="2"/>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.92100000000000004</v>
+        <v>0</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1.129</v>
-      </c>
-      <c r="D66">
-        <v>1.542</v>
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0.84299999999999997</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2.7440000000000002</v>
-      </c>
-      <c r="G66">
-        <v>1.069</v>
+        <v>0.35279836632695499</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="H66">
-        <v>1.5660000000000001</v>
+        <v>0.14017683403225201</v>
       </c>
       <c r="I66" s="2">
-        <v>1.577</v>
+        <v>0.15632231559485599</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -50964,7 +48630,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="2">
-        <v>0</v>
+        <v>3.2150228966431301E-3</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -50979,7 +48645,7 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>1.137</v>
+        <v>0</v>
       </c>
       <c r="X66">
         <v>0</v>
@@ -50991,72 +48657,36 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-      <c r="AI66">
-        <v>0</v>
-      </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
-      <c r="AK66">
-        <v>0</v>
-      </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
-      <c r="AM66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.879</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>1.2030000000000001</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>1.3140000000000001</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.82899999999999996</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.90099999999999902</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2.718</v>
+        <v>0.379123979834109</v>
       </c>
       <c r="G67">
-        <v>0.63700000000000001</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>3.1720000000000002</v>
+        <v>0.324994503847505</v>
       </c>
       <c r="I67">
-        <v>3.1659999999999999</v>
+        <v>0.30235751663381699</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -51110,72 +48740,36 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-      <c r="AI67">
-        <v>0</v>
-      </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
-      <c r="AK67">
-        <v>0</v>
-      </c>
-      <c r="AL67">
-        <v>0</v>
-      </c>
-      <c r="AM67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="B68">
-        <v>2.1760000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="C68">
-        <v>2.121</v>
-      </c>
-      <c r="D68">
-        <v>1.26</v>
-      </c>
-      <c r="E68">
-        <v>0.88300000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="F68">
-        <v>2.722</v>
+        <v>0.318874468842063</v>
       </c>
       <c r="G68">
-        <v>1.206</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>2.9009999999999998</v>
+        <v>0.27181773903636702</v>
       </c>
       <c r="I68" s="2">
-        <v>2.8079999999999998</v>
+        <v>0.286274880581326</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -51187,16 +48781,16 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>0.29035758586121302</v>
       </c>
       <c r="N68">
-        <v>1.5880000000000001</v>
+        <v>0.15465211833455</v>
       </c>
       <c r="O68">
-        <v>1.6279999999999999</v>
+        <v>0.20416031985707001</v>
       </c>
       <c r="P68">
-        <v>1.5029999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -51229,66 +48823,30 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
-      <c r="AK68">
-        <v>0</v>
-      </c>
-      <c r="AL68">
-        <v>0</v>
-      </c>
-      <c r="AM68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.83199999999999996</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>1.367</v>
-      </c>
-      <c r="C69">
-        <v>1.323</v>
-      </c>
-      <c r="D69">
-        <v>0.98899999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3.3306690738754598E-16</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0.97099999999999997</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>2.49799999999999</v>
-      </c>
-      <c r="G69">
-        <v>1.40299999999999</v>
+        <v>0.18538505744547501</v>
+      </c>
+      <c r="G69" s="2">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -51345,96 +48903,60 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>7.3516917560487198E-3</v>
       </c>
       <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-      <c r="AI69">
-        <v>0</v>
-      </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
-      <c r="AK69">
-        <v>0</v>
-      </c>
-      <c r="AL69">
-        <v>0</v>
-      </c>
-      <c r="AM69">
-        <v>1.611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.83199999999999996</v>
+        <v>0</v>
       </c>
       <c r="B70">
-        <v>3.008</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70">
-        <v>0</v>
+      <c r="D70" s="2">
+        <v>-2.2204460492503101E-16</v>
       </c>
       <c r="E70">
-        <v>0.98699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2.9140000000000001</v>
+        <v>0.34445408034203001</v>
       </c>
       <c r="G70">
-        <v>0.89700000000000002</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>2.577</v>
+        <v>0.26154322685877202</v>
       </c>
       <c r="I70">
-        <v>2.5799999999999899</v>
+        <v>0.234640045670332</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
-      <c r="K70">
-        <v>2.476</v>
+      <c r="K70" s="2">
+        <v>0.49288908578900198</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>0.22130300786832099</v>
       </c>
       <c r="N70">
-        <v>0.72299999999999998</v>
+        <v>0.22860306122448901</v>
       </c>
       <c r="O70">
-        <v>0.7</v>
+        <v>0.20909625771604901</v>
       </c>
       <c r="P70">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -51443,7 +48965,7 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>1.8239999999999901</v>
+        <v>0</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -51467,72 +48989,36 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <v>0</v>
-      </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
-      <c r="AK70">
-        <v>0</v>
-      </c>
-      <c r="AL70">
-        <v>0</v>
-      </c>
-      <c r="AM70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.84799999999999998</v>
+        <v>0</v>
       </c>
       <c r="B71">
-        <v>1.3380000000000001</v>
-      </c>
-      <c r="C71">
-        <v>1.39</v>
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1.11022302462515E-16</v>
       </c>
       <c r="D71">
-        <v>1.3180000000000001</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1.161</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2.8780000000000001</v>
+        <v>0.375819762778278</v>
       </c>
       <c r="G71">
-        <v>1.097</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>3.028</v>
+        <v>0.26450508595250999</v>
       </c>
       <c r="I71">
-        <v>2.9909999999999899</v>
+        <v>0.31772208411705599</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -51544,16 +49030,16 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.31797193300135801</v>
       </c>
       <c r="N71">
-        <v>0.47</v>
+        <v>3.3028755710830499E-2</v>
       </c>
       <c r="O71">
-        <v>0.61</v>
+        <v>-2.67667397537527E-2</v>
       </c>
       <c r="P71">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -51586,54 +49072,18 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
-      <c r="AK71">
-        <v>0</v>
-      </c>
-      <c r="AL71">
-        <v>0</v>
-      </c>
-      <c r="AM71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="B72">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -51642,16 +49092,16 @@
         <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>2.3140000000000001</v>
+        <v>0.20753124978990001</v>
       </c>
       <c r="G72">
-        <v>1.14899999999999</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>3.3519999999999999</v>
+        <v>0.281241233460164</v>
       </c>
       <c r="I72">
-        <v>3.32</v>
+        <v>0.34517768362606999</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -51663,22 +49113,22 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>0.44341205275436701</v>
       </c>
       <c r="N72">
-        <v>0.88300000000000001</v>
+        <v>0.181757139511353</v>
       </c>
       <c r="O72">
-        <v>0.93099999999999905</v>
+        <v>0.21075454355074699</v>
       </c>
       <c r="P72">
-        <v>0.89300000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1.831</v>
-      </c>
-      <c r="R72">
-        <v>1.405</v>
+        <v>0</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -51705,43 +49155,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
-      </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
-      <c r="AK72">
-        <v>0</v>
-      </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
-      <c r="AM72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX72" s="2"/>
     </row>
